--- a/biology/Zoologie/Conus_quiquandoni/Conus_quiquandoni.xlsx
+++ b/biology/Zoologie/Conus_quiquandoni/Conus_quiquandoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus quiquandoni est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 68 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'île de Balut, aux Philippines.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus quiquandoni a été décrite pour la première fois en 2008 par les malacologistes Felix Lorenz (d) et Jean-Pierre Barbier dans « Malacologia Mostra Mondiale »[1],[2].
-Synonymes
-Asprella quiquandoni (Lorenz &amp; Barbier, 2008) · non accepté
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus quiquandoni a été décrite pour la première fois en 2008 par les malacologistes Felix Lorenz (d) et Jean-Pierre Barbier dans « Malacologia Mostra Mondiale »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_quiquandoni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_quiquandoni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Asprella quiquandoni (Lorenz &amp; Barbier, 2008) · non accepté
 Conus (Phasmoconus) quiquandoni Lorenz &amp; Barbier, 2008 · appellation alternative
 Graphiconus quiquandoni (Lorenz &amp; Barbier, 2008) · non accepté</t>
         </is>
